--- a/くられぽ操作仕様書v1.0.xlsx
+++ b/くられぽ操作仕様書v1.0.xlsx
@@ -12,8 +12,10 @@
     <sheet name="インストール" sheetId="3" r:id="rId3"/>
     <sheet name="日誌記載" sheetId="4" r:id="rId4"/>
     <sheet name="確認" sheetId="5" r:id="rId5"/>
+    <sheet name="バックアップ" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">バックアップ!$A$1:$J$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">確認!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">日誌記載!$A$1:$J$73</definedName>
   </definedNames>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -462,12 +464,156 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作仕様書にバックアップ手順を追記</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ手順</t>
+    <rPh sb="6" eb="8">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度末もしくは半期ごと等でタブレットやスマホから教務日誌データを</t>
+    <rPh sb="0" eb="3">
+      <t>ネンドマツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り出し、保管する手順です。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USBケーブルでPCとつなぎます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC\PC-TE508HAW\内部共有ストレージ\Downloadから対象年度の日誌ファイルをコピペします。</t>
+    <rPh sb="35" eb="37">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日誌ファイルは20xx日付_時限.csvの形式になっています。</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピーしたファイルをサーバーの所定の位置に保存します。</t>
+    <rPh sb="15" eb="17">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末側でMTPにチェックを入れます。</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTPが有効になるとPC側で通知が出ます。</t>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\Sannas01\教務\05_出欠席\01教務日誌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1727,6 +1873,392 @@
         <a:xfrm>
           <a:off x="447675" y="4808764"/>
           <a:ext cx="704849" cy="353786"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30232</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164779</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="286993" y="4471781"/>
+          <a:ext cx="1509460" cy="1823001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32717</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="289478" y="6982240"/>
+          <a:ext cx="3719305" cy="2518393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371889</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>535470</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>151573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1316106" y="8446191"/>
+          <a:ext cx="851038" cy="841099"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42241</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="299002" y="1376568"/>
+          <a:ext cx="1564585" cy="2532587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240246</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2340664" y="1329360"/>
+          <a:ext cx="1593625" cy="2580031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>253449</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520148</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>169793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1197666" y="1750115"/>
+          <a:ext cx="1641612" cy="598004"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585581</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3592168" y="1682613"/>
+          <a:ext cx="284094" cy="354910"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2056,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2101,23 +2633,42 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="1">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="1">
         <v>43301</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="1">
+        <v>43525</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2127,6 +2678,7 @@
     <hyperlink ref="C7" location="インストール!A1" display="インストール"/>
     <hyperlink ref="C8" location="日誌記載!A1" display="日誌記載"/>
     <hyperlink ref="C9" location="確認!A1" display="確認"/>
+    <hyperlink ref="C10" location="バックアップ!A1" display="バックアップ!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2323,7 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2371,4 +2925,75 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B57"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>